--- a/data/trans_camb/P23_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>10,71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 5,22</t>
+          <t>-10,53; 7,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 10,48</t>
+          <t>-6,82; 15,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,37</t>
+          <t>-12,68; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,23</t>
+          <t>-15,15; 10,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 5,39</t>
+          <t>-16,77; 9,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,48</t>
+          <t>-6,05; 28,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 6,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 8,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 14,12</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>-74,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>-17,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>-26,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>72,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-18,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,99; 204,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 370,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 185,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,48; 132,52</t>
+          <t>-71,64; 149,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 105,34</t>
+          <t>-77,97; 141,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 128,06</t>
+          <t>-29,94; 365,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-67,12; 109,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; 154,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-47,37; 212,68</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 8,22</t>
+          <t>-1,82; 19,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,18</t>
+          <t>-5,01; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 3,66</t>
+          <t>1,93; 25,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,74</t>
+          <t>-5,11; 5,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,62</t>
+          <t>-5,92; 4,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 0,7</t>
+          <t>-5,42; 4,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 9,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 3,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 14,38</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>236,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,49%</t>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87,93%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 270,9</t>
+          <t>-49,03; 1424,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,45; 47,41</t>
+          <t>-81,7; 381,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 63,89</t>
+          <t>-2,52; 1157,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 43,76</t>
+          <t>-54,21; 118,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 73,85</t>
+          <t>-63,11; 108,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 15,61</t>
+          <t>-62,14; 136,41</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-32,13; 229,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-60,01; 87,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 343,61</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 8,2</t>
+          <t>-2,62; 15,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,67</t>
+          <t>-4,44; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,63</t>
+          <t>-1,6; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,72</t>
+          <t>-3,31; 3,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,52</t>
+          <t>-2,67; 4,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,24</t>
+          <t>-0,25; 8,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 7,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 2,14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 6,8</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,69%</t>
+          <t>-41,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>100,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>123,82%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>162,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132,03%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 851,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,19; 202,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,86; 353,05</t>
+          <t>-52,0; 921,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 554,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 236,36</t>
+          <t>-71,56; 580,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 177,37</t>
+          <t>-27,75; 724,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-63,23; 443,61</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-69,35; 190,96</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; 480,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 128,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 41,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 53,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 59,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 32,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 10,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 3,45</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 14,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 2,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 3,16</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 7,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 5,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 2,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 9,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>138,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>57,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-5,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>85,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-28,82; 424,78</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-61,51; 142,7</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 529,22</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-45,81; 68,57</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-48,58; 83,37</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 165,77</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 126,82</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,24; 54,81</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 213,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
